--- a/biology/Médecine/Charles_Saint-Yves/Charles_Saint-Yves.xlsx
+++ b/biology/Médecine/Charles_Saint-Yves/Charles_Saint-Yves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Saint-Yves, ou de Saint-Yves, (10 novembre 1667-3 août 1731) est un philanthrope et un oculiste français, célèbre pour son opération de la cataracte, et son traité d’ophtalmologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Saint-Yves naît en 1667 à Maubert-Fontaine (Ardennes), d'une famille protégée par Marie de Guise, qui le fait venir à Paris avec son frère aîné (1660-1730) en qualité de page. Il entre chez les Lazaristes de Paris en 1686, et y sert à la pharmacie, où il étudie la médecine et la chirurgie.
 Il se spécialise ensuite dans les maladies des yeux et l’ophtalmologie endocrinienne, et quitte le Prieuré Saint-Lazare pour s’établir en 1711 chez son frère aîné, rue Notre-Dame de Bonne-Nouvelle. 
@@ -545,7 +559,9 @@
           <t>L'opération de la cataracte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au tournant des XVIIe et XVIIIe siècles se répand l'idée que le siège de la vision ne réside pas dans le cristallin, mais que celui-ci consiste en une lentille dont la dégradation (« humeur vitreuse ») entraîne la cataracte. Pierre Brisseau (1631-1717) présente de telles conclusions à l'Académie de Médecine en 1705 puis dans son Traité de la Cataracte et du Glaucome (1709), suivi de d'Antoire Maître-Jean (Traité des maladies de l’œil, 1707).
 Ceci ouvre la voie à la recherche de traitements opératoires, et Saint-Yves pratique une première opération de la cataracte sur un sujet vivant en 1707 à Paris, et précise son mode chirurgical en menant plusieurs centaines d'extractions du cristallin par incision de la cornée durant cette première année, inventant ainsi l'occlusion par secteur. Saint-Yves conseille ensuite le chirurgien Jean-Louis Petit dans son opération de la cataracte en 1708. La technique s'affine dans les années qui suivent, au point de se pratiquer à une échelle relativement large dès la fin des années 1710.
@@ -578,7 +594,9 @@
           <t>Traité des maladies des yeux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fort de cette expérience et de la renommée qui s'ensuivit, Saint-Yves publie en 1722 une monographie pathologique descriptive devenue l'une des références de l'école française d'ophtalmologie, sous le titre Nouveau traité des maladies des yeux où l'on expose leur structure, leur usage, les causes de leurs maladies, leurs symptômes, les remèdes  et les opérations de chirurgie qui conviennent le plus à leur guérison, avec de nouvelles découvertes sur la structure de l'œil, qui prouvent l'organe immédiat de la vue, par Mr de Saint-Yves, chirurgien oculiste de Saint Côme.
 L'édition française originale parait à Paris en 1722, et est suivie de rééditions posthumes à Amsterdam (1736) et à Leipzig (1767). 
@@ -611,7 +629,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour son mode opératoire et son traité, Saint-Yves s’inscrit parmi les pionniers de l’ophtalmologie moderne et est considéré comme un des pères de l'école française. Sa réputation est confortée par les soins de son ancien disciple Étienne Léoffroy, et auquel Saint-Yves, sans descendance directe, légue son nom et ses biens, l'ayant adopté par patente royale. 
 Une lignée postérieure de médecins et d'intellectuels au nom Saint-Yves descend de Léoffroy plutôt que de branches collatérales qui entrèrent en litige avec ce dernier.
